--- a/Data/Test-Data.xlsx
+++ b/Data/Test-Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>S.No.</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>AUg@2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,10 +156,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,7 +664,9 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -667,13 +681,17 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>